--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Gdf9-Bmpr1b.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Gdf9-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Gdf9</t>
   </si>
   <si>
     <t>Bmpr1b</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7641413456774649</v>
+        <v>0.9029553333333333</v>
       </c>
       <c r="H2">
-        <v>0.7641413456774649</v>
+        <v>2.708866</v>
       </c>
       <c r="I2">
-        <v>0.364656473436349</v>
+        <v>0.2353208431348719</v>
       </c>
       <c r="J2">
-        <v>0.364656473436349</v>
+        <v>0.2353208431348719</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.44342760226662</v>
+        <v>1.57938</v>
       </c>
       <c r="N2">
-        <v>1.44342760226662</v>
+        <v>4.73814</v>
       </c>
       <c r="O2">
-        <v>0.7170705194480914</v>
+        <v>0.7235635290775982</v>
       </c>
       <c r="P2">
-        <v>0.7170705194480914</v>
+        <v>0.7235635290775982</v>
       </c>
       <c r="Q2">
-        <v>1.102982710384012</v>
+        <v>1.42610959436</v>
       </c>
       <c r="R2">
-        <v>1.102982710384012</v>
+        <v>12.83498634924</v>
       </c>
       <c r="S2">
-        <v>0.2614844068271119</v>
+        <v>0.1702695797241838</v>
       </c>
       <c r="T2">
-        <v>0.2614844068271119</v>
+        <v>0.1702695797241839</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7641413456774649</v>
+        <v>0.9029553333333333</v>
       </c>
       <c r="H3">
-        <v>0.7641413456774649</v>
+        <v>2.708866</v>
       </c>
       <c r="I3">
-        <v>0.364656473436349</v>
+        <v>0.2353208431348719</v>
       </c>
       <c r="J3">
-        <v>0.364656473436349</v>
+        <v>0.2353208431348719</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.569523095215107</v>
+        <v>0.6034</v>
       </c>
       <c r="N3">
-        <v>0.569523095215107</v>
+        <v>1.8102</v>
       </c>
       <c r="O3">
-        <v>0.2829294805519085</v>
+        <v>0.2764364709224018</v>
       </c>
       <c r="P3">
-        <v>0.2829294805519085</v>
+        <v>0.2764364709224018</v>
       </c>
       <c r="Q3">
-        <v>0.4351961443720669</v>
+        <v>0.5448432481333334</v>
       </c>
       <c r="R3">
-        <v>0.4351961443720669</v>
+        <v>4.9035892332</v>
       </c>
       <c r="S3">
-        <v>0.1031720666092371</v>
+        <v>0.06505126341068809</v>
       </c>
       <c r="T3">
-        <v>0.1031720666092371</v>
+        <v>0.06505126341068809</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.33136881619231</v>
+        <v>1.446898</v>
       </c>
       <c r="H4">
-        <v>1.33136881619231</v>
+        <v>4.340694</v>
       </c>
       <c r="I4">
-        <v>0.6353435265636511</v>
+        <v>0.3770787376970584</v>
       </c>
       <c r="J4">
-        <v>0.6353435265636511</v>
+        <v>0.3770787376970584</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.44342760226662</v>
+        <v>1.57938</v>
       </c>
       <c r="N4">
-        <v>1.44342760226662</v>
+        <v>4.73814</v>
       </c>
       <c r="O4">
-        <v>0.7170705194480914</v>
+        <v>0.7235635290775982</v>
       </c>
       <c r="P4">
-        <v>0.7170705194480914</v>
+        <v>0.7235635290775982</v>
       </c>
       <c r="Q4">
-        <v>1.921734498089014</v>
+        <v>2.28520176324</v>
       </c>
       <c r="R4">
-        <v>1.921734498089014</v>
+        <v>20.56681586916</v>
       </c>
       <c r="S4">
-        <v>0.4555861126209796</v>
+        <v>0.2728404221882096</v>
       </c>
       <c r="T4">
-        <v>0.4555861126209796</v>
+        <v>0.2728404221882096</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,185 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.446898</v>
+      </c>
+      <c r="H5">
+        <v>4.340694</v>
+      </c>
+      <c r="I5">
+        <v>0.3770787376970584</v>
+      </c>
+      <c r="J5">
+        <v>0.3770787376970584</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.6034</v>
+      </c>
+      <c r="N5">
+        <v>1.8102</v>
+      </c>
+      <c r="O5">
+        <v>0.2764364709224018</v>
+      </c>
+      <c r="P5">
+        <v>0.2764364709224018</v>
+      </c>
+      <c r="Q5">
+        <v>0.8730582532000001</v>
+      </c>
+      <c r="R5">
+        <v>7.857524278800001</v>
+      </c>
+      <c r="S5">
+        <v>0.1042383155088488</v>
+      </c>
+      <c r="T5">
+        <v>0.1042383155088488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.33136881619231</v>
-      </c>
-      <c r="H5">
-        <v>1.33136881619231</v>
-      </c>
-      <c r="I5">
-        <v>0.6353435265636511</v>
-      </c>
-      <c r="J5">
-        <v>0.6353435265636511</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.569523095215107</v>
-      </c>
-      <c r="N5">
-        <v>0.569523095215107</v>
-      </c>
-      <c r="O5">
-        <v>0.2829294805519085</v>
-      </c>
-      <c r="P5">
-        <v>0.2829294805519085</v>
-      </c>
-      <c r="Q5">
-        <v>0.7582452890707173</v>
-      </c>
-      <c r="R5">
-        <v>0.7582452890707173</v>
-      </c>
-      <c r="S5">
-        <v>0.1797574139426715</v>
-      </c>
-      <c r="T5">
-        <v>0.1797574139426715</v>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>1.487271</v>
+      </c>
+      <c r="H6">
+        <v>4.461812999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.3876004191680696</v>
+      </c>
+      <c r="J6">
+        <v>0.3876004191680697</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.57938</v>
+      </c>
+      <c r="N6">
+        <v>4.73814</v>
+      </c>
+      <c r="O6">
+        <v>0.7235635290775982</v>
+      </c>
+      <c r="P6">
+        <v>0.7235635290775982</v>
+      </c>
+      <c r="Q6">
+        <v>2.348966071979999</v>
+      </c>
+      <c r="R6">
+        <v>21.14069464781999</v>
+      </c>
+      <c r="S6">
+        <v>0.2804535271652048</v>
+      </c>
+      <c r="T6">
+        <v>0.2804535271652049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>1.487271</v>
+      </c>
+      <c r="H7">
+        <v>4.461812999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.3876004191680696</v>
+      </c>
+      <c r="J7">
+        <v>0.3876004191680697</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.6034</v>
+      </c>
+      <c r="N7">
+        <v>1.8102</v>
+      </c>
+      <c r="O7">
+        <v>0.2764364709224018</v>
+      </c>
+      <c r="P7">
+        <v>0.2764364709224018</v>
+      </c>
+      <c r="Q7">
+        <v>0.8974193213999999</v>
+      </c>
+      <c r="R7">
+        <v>8.076773892599999</v>
+      </c>
+      <c r="S7">
+        <v>0.1071468920028648</v>
+      </c>
+      <c r="T7">
+        <v>0.1071468920028648</v>
       </c>
     </row>
   </sheetData>
